--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/资源配置_resources.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/资源配置_resources.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">resources!$C$2:$H$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -733,7 +733,7 @@
   <dimension ref="A1:H1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -780,13 +780,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>70001</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
+      <c r="C4" s="6">
+        <v>70001</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -795,13 +795,13 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>70002</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
+      <c r="C5" s="6">
+        <v>70002</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -810,13 +810,13 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>70003</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>3</v>
+      <c r="C6" s="6">
+        <v>70003</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -825,13 +825,13 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>70004</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <v>4</v>
+      <c r="C7" s="6">
+        <v>70004</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -840,13 +840,13 @@
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>70005</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
-        <v>5</v>
+      <c r="C8" s="2">
+        <v>70005</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -854,13 +854,13 @@
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>70006</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
-        <v>6</v>
+      <c r="C9" s="2">
+        <v>70006</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
